--- a/pred_ohlcv/54_21/2020-01-24 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 FCT ohlcv.xlsx
@@ -8374,7 +8374,7 @@
         <v>-16618246.11894081</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-16472592.51904081</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-15822144.40623622</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-15898060.48269337</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-16049823.98329337</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-15939099.14669337</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-16124132.65579337</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-24489726.15139337</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-25512532.89189337</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-25507843.01513062</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-24938426.76809337</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-25167552.85650997</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-24766550.92064152</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-24621576.46291655</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-25090993.58310653</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-24342489.97290653</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-24977732.75690653</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-25139977.65150653</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-25358965.05860653</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-30244752.35300653</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-32874942.59050653</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-32896561.53520653</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-32777914.383942</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-32795727.87822116</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-32795727.87822116</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-32771650.92315131</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-32633361.30916137</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-32643217.98746137</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-32640699.05846137</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-32640699.05846137</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-32685772.20686137</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-32800047.99619377</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-37321965.15418386</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-37322994.55418386</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-46333456.67468386</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-46320116.16898386</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-46318814.13048386</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-46309936.53858386</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-46305046.27608386</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-46319120.46158386</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-46224071.06158386</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-51852710.82953488</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-50113455.78443488</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-50106006.93033488</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-50105670.15609414</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-50281700.01797684</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-50211751.78317683</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-50208394.12647683</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-50338596.27147684</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-50338596.27147684</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-50265917.77147684</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-50265917.77147684</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-50185917.77147684</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-50242897.04127683</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-50242897.04127683</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-50240057.04127683</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-50240057.04127683</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-50240057.04127683</v>
       </c>
       <c r="H637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-50240057.04127683</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-50242246.43497684</v>
       </c>
       <c r="H639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-50240715.03497684</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-24 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 FCT ohlcv.xlsx
@@ -8374,7 +8374,7 @@
         <v>-16618246.11894081</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-16472592.51904081</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-15822144.40623622</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-15898060.48269337</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-16049823.98329337</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-15939099.14669337</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-16124132.65579337</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-24489726.15139337</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-25512532.89189337</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-25507843.01513062</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-24938426.76809337</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-25167552.85650997</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-24766550.92064152</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-24621576.46291655</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-25090993.58310653</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-24342489.97290653</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-24977732.75690653</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-25139977.65150653</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-25358965.05860653</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-30244752.35300653</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-32874942.59050653</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-32896561.53520653</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-32777914.383942</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-32795727.87822116</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-32771650.92315131</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-32633361.30916137</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-32643217.98746137</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-32640699.05846137</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-32640699.05846137</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-32685772.20686137</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-32800047.99619377</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-32957201.57359377</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-32775810.99579376</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-46333456.67468386</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-46320116.16898386</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-46318814.13048386</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-46309936.53858386</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-51852710.82953488</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-50113455.78443488</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-50106006.93033488</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-50105670.15609414</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-50281700.01797684</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-50210320.48317683</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-50211751.78317683</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-50211751.78317683</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-50265917.77147684</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-50265917.77147684</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-50185917.77147684</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-50185917.77147684</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-50187576.57147683</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-50186073.57147683</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-50187659.57147683</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-50240317.05917683</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-50240317.05917683</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-50245247.04127683</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-50246794.04127683</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-50241326.64127684</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-50242897.04127683</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-50242897.04127683</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-50240057.04127683</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-50240057.04127683</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-50240057.04127683</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-50240057.04127683</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-50242246.43497684</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-50240715.03497684</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
